--- a/data/trans_dic/P28A_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28A_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más alcohol respecto al último mes</t>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>1,71%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 11,54</t>
+          <t>1,99; 11,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 13,23</t>
+          <t>0,74; 7,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,72</t>
+          <t>0,3; 2,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,26</t>
+          <t>0,79; 4,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,2</t>
+          <t>0,0; 9,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 16,6</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,61</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,84</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 9,37</t>
+          <t>1,35; 7,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 11,77</t>
+          <t>0,73; 4,12</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,17</t>
+          <t>0,29; 2,07</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,75</t>
+          <t>0,47; 2,43</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,56</t>
+          <t>5,21; 11,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,62</t>
+          <t>4,72; 10,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,22</t>
+          <t>0,85; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,84</t>
+          <t>0,91; 3,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,13</t>
+          <t>2,97; 8,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,7</t>
+          <t>2,35; 6,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,56</t>
+          <t>0,92; 3,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 8,24</t>
+          <t>1,26; 3,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,79</t>
+          <t>4,66; 8,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,55</t>
+          <t>4,23; 7,73</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,24</t>
+          <t>1,08; 3,04</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,15</t>
+          <t>1,32; 3,09</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 17,79</t>
+          <t>8,84; 19,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 16,18</t>
+          <t>5,9; 13,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,79</t>
+          <t>0,57; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,54</t>
+          <t>3,04; 8,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,14</t>
+          <t>4,73; 11,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,71</t>
+          <t>4,2; 10,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,61</t>
+          <t>0,95; 3,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,67</t>
+          <t>1,58; 4,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,95</t>
+          <t>7,68; 13,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 13,78</t>
+          <t>5,71; 10,15</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,59</t>
+          <t>1,12; 3,24</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,0</t>
+          <t>2,69; 5,64</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,99</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,51</t>
+          <t>4,34; 7,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 13,59</t>
+          <t>5,68; 13,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,67</t>
+          <t>0,49; 3,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,49</t>
+          <t>2,28; 4,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,33</t>
+          <t>2,77; 6,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,85</t>
+          <t>1,62; 5,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,56</t>
+          <t>3,67; 5,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,6</t>
+          <t>4,78; 9,01</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,95</t>
+          <t>1,31; 3,51</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 8,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 9,77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 2,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,17; 4,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 5,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 5,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 2,77</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 2,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 6,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 7,22</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 2,38</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 3,23</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12066</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8935</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5919</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14831</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7193</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16509</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16128</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10494</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19052</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4499; 26044</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2511; 26233</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1582; 15236</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5765; 31434</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24169</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2156; 19372</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15954</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24283</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6578; 37106</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5563; 31372</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3410; 24174</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7693; 39474</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52876</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68427</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22966</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30410</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38065</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39715</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23165</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34914</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>90941</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>108142</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>46131</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>65324</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33911; 74385</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44049; 97995</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10203; 44856</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14744; 58457</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21236; 57318</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23512; 64136</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11301; 43379</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19044; 57669</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>63649; 119903</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81826; 149341</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>26344; 74087</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>41190; 96494</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60259</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63834</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13756</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55806</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40210</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50949</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18849</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32836</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>100469</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>114783</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>32605</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>88642</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40305; 87371</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42250; 95782</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4828; 34311</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33199; 90941</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25165; 59288</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32287; 77365</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8962; 33284</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18431; 52545</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>75854; 133086</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84820; 150745</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20100; 57888</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>60531; 127096</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>123218</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>119807</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11910</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>68525</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>58992</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23095</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>191743</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>178799</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>91772; 158138</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>82764; 197315</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4205; 30606</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47543; 96069</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38766; 88362</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12332; 43096</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>154114; 233929</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>136499; 257493</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>21218; 56987</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>248420</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>261003</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>54551</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>101046</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>151244</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>156849</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69684</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>71972</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>399663</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>417852</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>124234</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>173018</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>206777; 302408</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>210180; 336530</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32930; 82942</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>74768; 147250</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>119488; 192111</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>120930; 198986</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46491; 99135</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>49628; 104386</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>346622; 461607</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>352413; 507707</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>96261; 166925</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>135623; 226466</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>